--- a/data/output/FV2310_FV2304/INVOIC/31009.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31009.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="345">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="345">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1226,6 +1226,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U194" totalsRowShown="0">
+  <autoFilter ref="A1:U194"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1515,7 +1545,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10250,5 +10283,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31009.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="526">
   <si>
     <t>#</t>
   </si>
@@ -3658,46 +3658,44 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="L33" s="4"/>
+      <c r="M33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3727,9 +3725,7 @@
         <v>270</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
@@ -3779,9 +3775,7 @@
         <v>270</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>29</v>
       </c>
@@ -3806,44 +3800,42 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M36" s="5" t="s">
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V36" s="5"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3867,9 +3859,7 @@
         <v>269</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>30</v>
       </c>
@@ -3917,9 +3907,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3973,9 +3961,7 @@
         <v>270</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>30</v>
       </c>
@@ -4002,46 +3988,44 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="L40" s="4"/>
+      <c r="M40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V40" s="5" t="s">
+      <c r="V40" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4067,9 +4051,7 @@
         <v>269</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>31</v>
       </c>
@@ -4117,9 +4099,7 @@
         <v>270</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>31</v>
       </c>
@@ -4202,44 +4182,42 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M44" s="5" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5" t="s">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V44" s="5"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="5" t="s">
@@ -4263,9 +4241,7 @@
         <v>269</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>32</v>
       </c>
@@ -4313,9 +4289,7 @@
         <v>270</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>32</v>
       </c>
@@ -4369,9 +4343,7 @@
       <c r="K47" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="L47" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
@@ -4425,9 +4397,7 @@
         <v>270</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>32</v>
       </c>
@@ -4481,9 +4451,7 @@
         <v>270</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>32</v>
       </c>
@@ -4535,9 +4503,7 @@
         <v>270</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>32</v>
       </c>
@@ -4589,9 +4555,7 @@
         <v>270</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>32</v>
       </c>
@@ -4645,9 +4609,7 @@
         <v>270</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4753,9 +4715,7 @@
         <v>277</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -4805,9 +4765,7 @@
         <v>270</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>32</v>
       </c>
@@ -4857,9 +4815,7 @@
         <v>270</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>32</v>
       </c>
@@ -4884,44 +4840,42 @@
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M57" s="5" t="s">
+      <c r="K57" s="2"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V57" s="5"/>
+      <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4945,9 +4899,7 @@
         <v>269</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4995,9 +4947,7 @@
         <v>270</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>
@@ -5053,9 +5003,7 @@
       <c r="K60" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>33</v>
       </c>
@@ -5109,9 +5057,7 @@
         <v>270</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>33</v>
       </c>
@@ -5136,44 +5082,42 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -5197,9 +5141,7 @@
         <v>269</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>34</v>
       </c>
@@ -5247,9 +5189,7 @@
         <v>270</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>34</v>
       </c>
@@ -5301,9 +5241,7 @@
         <v>270</v>
       </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>34</v>
       </c>
@@ -5328,48 +5266,46 @@
       <c r="V65" s="5"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M66" s="5" t="s">
+      <c r="K66" s="2"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="O66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V66" s="5"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -5397,9 +5333,7 @@
         <v>270</v>
       </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>35</v>
       </c>
@@ -5451,9 +5385,7 @@
         <v>280</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>35</v>
       </c>
@@ -5507,9 +5439,7 @@
         <v>280</v>
       </c>
       <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="5" t="s">
         <v>35</v>
       </c>
@@ -5563,9 +5493,7 @@
         <v>280</v>
       </c>
       <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L70" s="4"/>
       <c r="M70" s="5" t="s">
         <v>35</v>
       </c>
@@ -5619,9 +5547,7 @@
         <v>280</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>35</v>
       </c>
@@ -5675,9 +5601,7 @@
         <v>280</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>35</v>
       </c>
@@ -5704,44 +5628,42 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M73" s="5" t="s">
+      <c r="K73" s="2"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V73" s="5"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5765,9 +5687,7 @@
         <v>269</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="5" t="s">
         <v>36</v>
       </c>
@@ -5815,9 +5735,7 @@
         <v>270</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>36</v>
       </c>
@@ -5871,9 +5789,7 @@
       <c r="K76" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="L76" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>36</v>
       </c>
@@ -5927,9 +5843,7 @@
         <v>270</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>36</v>
       </c>
@@ -5983,9 +5897,7 @@
         <v>270</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>36</v>
       </c>
@@ -6037,9 +5949,7 @@
         <v>270</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>36</v>
       </c>
@@ -6091,9 +6001,7 @@
         <v>270</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>36</v>
       </c>
@@ -6147,9 +6055,7 @@
         <v>270</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>36</v>
       </c>
@@ -6255,9 +6161,7 @@
         <v>277</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>36</v>
       </c>
@@ -6307,9 +6211,7 @@
         <v>270</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>36</v>
       </c>
@@ -6359,9 +6261,7 @@
         <v>270</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>36</v>
       </c>
@@ -6386,46 +6286,44 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="V86" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6451,9 +6349,7 @@
         <v>269</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>33</v>
       </c>
@@ -6501,9 +6397,7 @@
         <v>270</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>33</v>
       </c>
@@ -6559,9 +6453,7 @@
       <c r="K89" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="L89" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>33</v>
       </c>
@@ -6615,9 +6507,7 @@
         <v>270</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>33</v>
       </c>
@@ -7270,48 +7160,46 @@
       <c r="V106" s="9"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5" t="s">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M107" s="5" t="s">
+      <c r="K107" s="2"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O107" s="5" t="s">
+      <c r="O107" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5" t="s">
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V107" s="5"/>
+      <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7341,9 +7229,7 @@
         <v>270</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>38</v>
       </c>
@@ -7426,44 +7312,42 @@
       </c>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M110" s="5" t="s">
+      <c r="K110" s="2"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V110" s="5"/>
+      <c r="V110" s="2"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7487,9 +7371,7 @@
         <v>269</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>39</v>
       </c>
@@ -7537,9 +7419,7 @@
         <v>270</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>39</v>
       </c>
@@ -7593,9 +7473,7 @@
         <v>270</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>39</v>
       </c>
@@ -7649,9 +7527,7 @@
         <v>270</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>39</v>
       </c>
@@ -7678,44 +7554,42 @@
       <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M115" s="5" t="s">
+      <c r="K115" s="2"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V115" s="5"/>
+      <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -7739,9 +7613,7 @@
         <v>269</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>40</v>
       </c>
@@ -7789,9 +7661,7 @@
         <v>270</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
@@ -7818,48 +7688,46 @@
       <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5" t="s">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M118" s="5" t="s">
+      <c r="K118" s="2"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O118" s="5" t="s">
+      <c r="O118" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5" t="s">
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V118" s="5"/>
+      <c r="V118" s="2"/>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="5" t="s">
@@ -7889,9 +7757,7 @@
         <v>270</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>41</v>
       </c>
@@ -7945,9 +7811,7 @@
       <c r="K120" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L120" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>41</v>
       </c>
@@ -8001,9 +7865,7 @@
         <v>270</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>41</v>
       </c>
@@ -8030,44 +7892,42 @@
       <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5" t="s">
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M122" s="5" t="s">
+      <c r="K122" s="2"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N122" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5" t="s">
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V122" s="5"/>
+      <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -8091,9 +7951,7 @@
         <v>269</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>42</v>
       </c>
@@ -8141,9 +7999,7 @@
       <c r="K124" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="L124" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>42</v>
       </c>
@@ -8326,48 +8182,46 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5" t="s">
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M128" s="5" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O128" s="5" t="s">
+      <c r="O128" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5" t="s">
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V128" s="5"/>
+      <c r="V128" s="2"/>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="5" t="s">
@@ -8397,9 +8251,7 @@
         <v>270</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8453,9 +8305,7 @@
       <c r="K130" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L130" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>43</v>
       </c>
@@ -8511,9 +8361,7 @@
       <c r="K131" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L131" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>43</v>
       </c>
@@ -8617,9 +8465,7 @@
         <v>270</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>44</v>
       </c>
@@ -8673,9 +8519,7 @@
       <c r="K134" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L134" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>44</v>
       </c>
@@ -8729,9 +8573,7 @@
         <v>270</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>44</v>
       </c>
@@ -8785,9 +8627,7 @@
         <v>270</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>44</v>
       </c>
@@ -8843,9 +8683,7 @@
       <c r="K137" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L137" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>44</v>
       </c>
@@ -8949,9 +8787,7 @@
         <v>270</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>45</v>
       </c>
@@ -9057,9 +8893,7 @@
         <v>270</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>45</v>
       </c>
@@ -9161,9 +8995,7 @@
         <v>270</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -9269,9 +9101,7 @@
         <v>270</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9462,44 +9292,42 @@
       <c r="V149" s="9"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M150" s="5" t="s">
+      <c r="K150" s="2"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V150" s="5"/>
+      <c r="V150" s="2"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -9523,9 +9351,7 @@
         <v>269</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>47</v>
       </c>
@@ -9573,9 +9399,7 @@
         <v>270</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>47</v>
       </c>
@@ -9629,9 +9453,7 @@
       <c r="K153" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L153" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>47</v>
       </c>
@@ -9658,44 +9480,42 @@
       </c>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5" t="s">
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M154" s="5" t="s">
+      <c r="K154" s="2"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N154" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5" t="s">
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V154" s="5"/>
+      <c r="V154" s="2"/>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="5" t="s">
@@ -9719,9 +9539,7 @@
         <v>269</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>48</v>
       </c>
@@ -9769,9 +9587,7 @@
         <v>270</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>48</v>
       </c>
@@ -9825,9 +9641,7 @@
       <c r="K157" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L157" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>48</v>
       </c>
@@ -9956,44 +9770,42 @@
       </c>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M160" s="5" t="s">
+      <c r="K160" s="2"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V160" s="5"/>
+      <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -10017,9 +9829,7 @@
         <v>269</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>49</v>
       </c>
@@ -10067,9 +9877,7 @@
         <v>270</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>49</v>
       </c>
@@ -10123,9 +9931,7 @@
         <v>270</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>49</v>
       </c>
@@ -10179,9 +9985,7 @@
       <c r="K164" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L164" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>49</v>
       </c>
@@ -10235,9 +10039,7 @@
         <v>270</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>49</v>
       </c>
@@ -10291,9 +10093,7 @@
         <v>270</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>49</v>
       </c>
@@ -10347,9 +10147,7 @@
         <v>270</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>49</v>
       </c>
@@ -10376,44 +10174,42 @@
       <c r="V167" s="5"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5" t="s">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M168" s="5" t="s">
+      <c r="K168" s="2"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5" t="s">
+      <c r="N168" s="2"/>
+      <c r="O168" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -10441,9 +10237,7 @@
         <v>270</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>50</v>
       </c>
@@ -10468,44 +10262,42 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M170" s="5" t="s">
+      <c r="K170" s="2"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V170" s="5"/>
+      <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="5" t="s">
@@ -10529,9 +10321,7 @@
         <v>269</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>51</v>
       </c>
@@ -10579,9 +10369,7 @@
         <v>270</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>51</v>
       </c>
@@ -10635,9 +10423,7 @@
       <c r="K173" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L173" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>51</v>
       </c>
@@ -10664,44 +10450,42 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5" t="s">
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M174" s="5" t="s">
+      <c r="K174" s="2"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N174" s="5" t="s">
+      <c r="N174" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-      <c r="U174" s="5" t="s">
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V174" s="5"/>
+      <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="5" t="s">
@@ -10725,9 +10509,7 @@
         <v>269</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>52</v>
       </c>
@@ -10775,9 +10557,7 @@
         <v>270</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>52</v>
       </c>
@@ -10831,9 +10611,7 @@
       <c r="K177" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L177" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>52</v>
       </c>
@@ -10860,44 +10638,42 @@
       </c>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5" t="s">
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M178" s="5" t="s">
+      <c r="K178" s="2"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O178" s="5"/>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5" t="s">
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V178" s="5"/>
+      <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="5" t="s">
@@ -10921,9 +10697,7 @@
         <v>269</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>53</v>
       </c>
@@ -10971,9 +10745,7 @@
         <v>270</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>53</v>
       </c>
@@ -11027,9 +10799,7 @@
         <v>270</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>53</v>
       </c>
@@ -11083,9 +10853,7 @@
       <c r="K182" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L182" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>53</v>
       </c>
@@ -11139,9 +10907,7 @@
         <v>270</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>53</v>
       </c>
@@ -11195,9 +10961,7 @@
         <v>270</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>53</v>
       </c>
@@ -11251,9 +11015,7 @@
         <v>270</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>53</v>
       </c>
@@ -11280,48 +11042,46 @@
       <c r="V185" s="5"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M186" s="5" t="s">
+      <c r="K186" s="2"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="O186" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P186" s="5"/>
-      <c r="Q186" s="5"/>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V186" s="5"/>
+      <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
@@ -11351,9 +11111,7 @@
         <v>270</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>54</v>
       </c>
@@ -11407,9 +11165,7 @@
       <c r="K188" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L188" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>54</v>
       </c>
@@ -11436,48 +11192,46 @@
       </c>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="K189" s="2"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O189" s="5" t="s">
+      <c r="O189" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -11507,9 +11261,7 @@
         <v>270</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>55</v>
       </c>
@@ -11563,9 +11315,7 @@
       <c r="K191" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L191" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>55</v>
       </c>
@@ -11592,44 +11342,42 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5" t="s">
+      <c r="C192" s="2"/>
+      <c r="D192" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5" t="s">
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M192" s="5" t="s">
+      <c r="K192" s="2"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N192" s="5"/>
-      <c r="O192" s="5" t="s">
+      <c r="N192" s="2"/>
+      <c r="O192" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5" t="s">
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V192" s="5"/>
+      <c r="V192" s="2"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="5" t="s">
@@ -11655,9 +11403,7 @@
         <v>270</v>
       </c>
       <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>56</v>
       </c>
@@ -11703,9 +11449,7 @@
         <v>270</v>
       </c>
       <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>56</v>
       </c>

--- a/data/output/FV2310_FV2304/INVOIC/31009.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31009.xlsx
@@ -1753,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1782,11 +1782,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2224,7 +2230,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2560,7 +2566,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2794,7 +2800,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2982,7 +2988,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3172,7 +3178,7 @@
         <v>294</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3360,7 +3366,7 @@
         <v>294</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3680,7 +3686,7 @@
         <v>295</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2"/>
@@ -3820,7 +3826,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -4010,7 +4016,7 @@
         <v>296</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4202,7 +4208,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4860,7 +4866,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5102,7 +5108,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5288,7 +5294,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5648,7 +5654,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6308,7 +6314,7 @@
         <v>301</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6538,20 +6544,20 @@
       <c r="B91" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10" t="s">
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="K91" s="10"/>
-      <c r="L91" s="11" t="s">
+      <c r="K91" s="11"/>
+      <c r="L91" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M91" s="5"/>
@@ -6569,25 +6575,25 @@
       <c r="A92" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10" t="s">
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="K92" s="10"/>
-      <c r="L92" s="11" t="s">
+      <c r="K92" s="11"/>
+      <c r="L92" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M92" s="5"/>
@@ -6605,31 +6611,31 @@
       <c r="A93" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10" t="s">
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10" t="s">
+      <c r="H93" s="11"/>
+      <c r="I93" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="J93" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="K93" s="10"/>
-      <c r="L93" s="11" t="s">
+      <c r="J93" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K93" s="11"/>
+      <c r="L93" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M93" s="5"/>
@@ -6647,29 +6653,29 @@
       <c r="A94" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10" t="s">
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="11" t="s">
+      <c r="K94" s="11"/>
+      <c r="L94" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M94" s="5"/>
@@ -6687,31 +6693,31 @@
       <c r="A95" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10" t="s">
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="K95" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="L95" s="11" t="s">
+      <c r="L95" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M95" s="5"/>
@@ -6729,29 +6735,29 @@
       <c r="A96" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10" t="s">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="K96" s="10"/>
-      <c r="L96" s="11" t="s">
+      <c r="K96" s="11"/>
+      <c r="L96" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M96" s="5"/>
@@ -6769,29 +6775,29 @@
       <c r="A97" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10" t="s">
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="J97" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="K97" s="10"/>
-      <c r="L97" s="11" t="s">
+      <c r="J97" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K97" s="11"/>
+      <c r="L97" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M97" s="5"/>
@@ -6809,29 +6815,29 @@
       <c r="A98" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10" t="s">
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J98" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="K98" s="10"/>
-      <c r="L98" s="11" t="s">
+      <c r="J98" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K98" s="11"/>
+      <c r="L98" s="12" t="s">
         <v>319</v>
       </c>
       <c r="M98" s="5"/>
@@ -6862,7 +6868,7 @@
       <c r="L99" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="M99" s="9" t="s">
+      <c r="M99" s="13" t="s">
         <v>320</v>
       </c>
       <c r="N99" s="9" t="s">
@@ -7182,7 +7188,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7332,7 +7338,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7574,7 +7580,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7710,7 +7716,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7912,7 +7918,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8204,7 +8210,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8390,50 +8396,50 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
       <c r="J132" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="K132" s="5" t="s">
+      <c r="K132" s="2" t="s">
         <v>309</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
       <c r="U132" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="V132" s="5" t="s">
+      <c r="V132" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8712,50 +8718,50 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
       <c r="J138" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="K138" s="5" t="s">
+      <c r="K138" s="2" t="s">
         <v>312</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M138" s="5" t="s">
+      <c r="M138" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O138" s="5" t="s">
+      <c r="O138" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
       <c r="U138" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="V138" s="5" t="s">
+      <c r="V138" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8920,50 +8926,50 @@
       <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
       <c r="J142" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="K142" s="5" t="s">
+      <c r="K142" s="2" t="s">
         <v>312</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M142" s="5" t="s">
+      <c r="M142" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N142" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O142" s="5" t="s">
+      <c r="O142" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
       <c r="U142" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="V142" s="5" t="s">
+      <c r="V142" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9144,7 +9150,7 @@
       <c r="L146" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="M146" s="9" t="s">
+      <c r="M146" s="13" t="s">
         <v>321</v>
       </c>
       <c r="N146" s="9" t="s">
@@ -9312,7 +9318,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9500,7 +9506,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9790,7 +9796,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10194,7 +10200,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N168" s="2"/>
@@ -10282,7 +10288,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10470,7 +10476,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10658,7 +10664,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11064,7 +11070,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11214,7 +11220,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11362,7 +11368,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N192" s="2"/>
